--- a/natmiOut/OldD0/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H2">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I2">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J2">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>27.3874184929622</v>
+        <v>0.06089466666666667</v>
       </c>
       <c r="N2">
-        <v>27.3874184929622</v>
+        <v>0.182684</v>
       </c>
       <c r="O2">
-        <v>0.8802160875901095</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="P2">
-        <v>0.8802160875901095</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="Q2">
-        <v>907.7424241002834</v>
+        <v>4.126984831876001</v>
       </c>
       <c r="R2">
-        <v>907.7424241002834</v>
+        <v>37.142863486884</v>
       </c>
       <c r="S2">
-        <v>0.2240953171583941</v>
+        <v>0.0007765964661626687</v>
       </c>
       <c r="T2">
-        <v>0.2240953171583941</v>
+        <v>0.0007765964661626686</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.1445048146304</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H3">
-        <v>33.1445048146304</v>
+        <v>203.317551</v>
       </c>
       <c r="I3">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J3">
-        <v>0.254591253577211</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.72700770202426</v>
+        <v>28.046323</v>
       </c>
       <c r="N3">
-        <v>3.72700770202426</v>
+        <v>84.138969</v>
       </c>
       <c r="O3">
-        <v>0.1197839124098905</v>
+        <v>0.8767392739472014</v>
       </c>
       <c r="P3">
-        <v>0.1197839124098905</v>
+        <v>0.8767392739472013</v>
       </c>
       <c r="Q3">
-        <v>123.5298247239077</v>
+        <v>1900.769902304991</v>
       </c>
       <c r="R3">
-        <v>123.5298247239077</v>
+        <v>17106.92912074492</v>
       </c>
       <c r="S3">
-        <v>0.03049593641881686</v>
+        <v>0.3576778808870527</v>
       </c>
       <c r="T3">
-        <v>0.03049593641881686</v>
+        <v>0.3576778808870527</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>59.8357744425197</v>
+        <v>67.77251700000001</v>
       </c>
       <c r="H4">
-        <v>59.8357744425197</v>
+        <v>203.317551</v>
       </c>
       <c r="I4">
-        <v>0.4596135893199407</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="J4">
-        <v>0.4596135893199407</v>
+        <v>0.4079637943863715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.3874184929622</v>
+        <v>3.882136333333333</v>
       </c>
       <c r="N4">
-        <v>27.3874184929622</v>
+        <v>11.646409</v>
       </c>
       <c r="O4">
-        <v>0.8802160875901095</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="P4">
-        <v>0.8802160875901095</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="Q4">
-        <v>1638.747395507779</v>
+        <v>263.1021506471511</v>
       </c>
       <c r="R4">
-        <v>1638.747395507779</v>
+        <v>2367.919355824359</v>
       </c>
       <c r="S4">
-        <v>0.4045592753944455</v>
+        <v>0.04950931703315616</v>
       </c>
       <c r="T4">
-        <v>0.4045592753944455</v>
+        <v>0.04950931703315616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>59.8357744425197</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H5">
-        <v>59.8357744425197</v>
+        <v>182.932819</v>
       </c>
       <c r="I5">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J5">
-        <v>0.4596135893199407</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.72700770202426</v>
+        <v>0.06089466666666667</v>
       </c>
       <c r="N5">
-        <v>3.72700770202426</v>
+        <v>0.182684</v>
       </c>
       <c r="O5">
-        <v>0.1197839124098905</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="P5">
-        <v>0.1197839124098905</v>
+        <v>0.001903591634475228</v>
       </c>
       <c r="Q5">
-        <v>223.0083922038573</v>
+        <v>3.713211011799556</v>
       </c>
       <c r="R5">
-        <v>223.0083922038573</v>
+        <v>33.418899106196</v>
       </c>
       <c r="S5">
-        <v>0.05505431392549515</v>
+        <v>0.0006987344677419171</v>
       </c>
       <c r="T5">
-        <v>0.05505431392549515</v>
+        <v>0.000698734467741917</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.2068514825103</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H6">
-        <v>37.2068514825103</v>
+        <v>182.932819</v>
       </c>
       <c r="I6">
-        <v>0.2857951571028484</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J6">
-        <v>0.2857951571028484</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.3874184929622</v>
+        <v>28.046323</v>
       </c>
       <c r="N6">
-        <v>27.3874184929622</v>
+        <v>84.138969</v>
       </c>
       <c r="O6">
-        <v>0.8802160875901095</v>
+        <v>0.8767392739472014</v>
       </c>
       <c r="P6">
-        <v>0.8802160875901095</v>
+        <v>0.8767392739472013</v>
       </c>
       <c r="Q6">
-        <v>1018.999612357001</v>
+        <v>1710.197642991512</v>
       </c>
       <c r="R6">
-        <v>1018.999612357001</v>
+        <v>15391.77878692361</v>
       </c>
       <c r="S6">
-        <v>0.2515614950372699</v>
+        <v>0.3218168954071986</v>
       </c>
       <c r="T6">
-        <v>0.2515614950372699</v>
+        <v>0.3218168954071985</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.2068514825103</v>
+        <v>60.97760633333333</v>
       </c>
       <c r="H7">
-        <v>37.2068514825103</v>
+        <v>182.932819</v>
       </c>
       <c r="I7">
-        <v>0.2857951571028484</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="J7">
-        <v>0.2857951571028484</v>
+        <v>0.3670611149405164</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.72700770202426</v>
+        <v>3.882136333333333</v>
       </c>
       <c r="N7">
-        <v>3.72700770202426</v>
+        <v>11.646409</v>
       </c>
       <c r="O7">
-        <v>0.1197839124098905</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="P7">
-        <v>0.1197839124098905</v>
+        <v>0.1213571344183235</v>
       </c>
       <c r="Q7">
-        <v>138.6702220433887</v>
+        <v>236.7233810663301</v>
       </c>
       <c r="R7">
-        <v>138.6702220433887</v>
+        <v>2130.510429596971</v>
       </c>
       <c r="S7">
-        <v>0.03423366206557848</v>
+        <v>0.04454548506557593</v>
       </c>
       <c r="T7">
-        <v>0.03423366206557848</v>
+        <v>0.04454548506557592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>37.37372866666667</v>
+      </c>
+      <c r="H8">
+        <v>112.121186</v>
+      </c>
+      <c r="I8">
+        <v>0.2249750906731122</v>
+      </c>
+      <c r="J8">
+        <v>0.2249750906731122</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.06089466666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.182684</v>
+      </c>
+      <c r="O8">
+        <v>0.001903591634475228</v>
+      </c>
+      <c r="P8">
+        <v>0.001903591634475228</v>
+      </c>
+      <c r="Q8">
+        <v>2.275860749247112</v>
+      </c>
+      <c r="R8">
+        <v>20.482746743224</v>
+      </c>
+      <c r="S8">
+        <v>0.0004282607005706423</v>
+      </c>
+      <c r="T8">
+        <v>0.0004282607005706422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>37.37372866666667</v>
+      </c>
+      <c r="H9">
+        <v>112.121186</v>
+      </c>
+      <c r="I9">
+        <v>0.2249750906731122</v>
+      </c>
+      <c r="J9">
+        <v>0.2249750906731122</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>28.046323</v>
+      </c>
+      <c r="N9">
+        <v>84.138969</v>
+      </c>
+      <c r="O9">
+        <v>0.8767392739472014</v>
+      </c>
+      <c r="P9">
+        <v>0.8767392739472013</v>
+      </c>
+      <c r="Q9">
+        <v>1048.195665899693</v>
+      </c>
+      <c r="R9">
+        <v>9433.760993097236</v>
+      </c>
+      <c r="S9">
+        <v>0.1972444976529502</v>
+      </c>
+      <c r="T9">
+        <v>0.1972444976529502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>37.37372866666667</v>
+      </c>
+      <c r="H10">
+        <v>112.121186</v>
+      </c>
+      <c r="I10">
+        <v>0.2249750906731122</v>
+      </c>
+      <c r="J10">
+        <v>0.2249750906731122</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.882136333333333</v>
+      </c>
+      <c r="N10">
+        <v>11.646409</v>
+      </c>
+      <c r="O10">
+        <v>0.1213571344183235</v>
+      </c>
+      <c r="P10">
+        <v>0.1213571344183235</v>
+      </c>
+      <c r="Q10">
+        <v>145.0899099690082</v>
+      </c>
+      <c r="R10">
+        <v>1305.809189721074</v>
+      </c>
+      <c r="S10">
+        <v>0.02730233231959139</v>
+      </c>
+      <c r="T10">
+        <v>0.02730233231959139</v>
       </c>
     </row>
   </sheetData>
